--- a/data/tehilim-data/109.xlsx
+++ b/data/tehilim-data/109.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="416">
   <si>
     <t>original</t>
   </si>
@@ -25,13 +25,13 @@
     <t>לַמְנַצֵּחַ</t>
   </si>
   <si>
-    <t>Начальнику хора</t>
+    <t>Руководителю хора</t>
   </si>
   <si>
     <t>לְדָוִד</t>
   </si>
   <si>
-    <t>псалом</t>
+    <t>песнопение</t>
   </si>
   <si>
     <t>מִזְמוֹר</t>
@@ -61,135 +61,132 @@
     <t>ב</t>
   </si>
   <si>
-    <t>כִּי־פִי</t>
-  </si>
-  <si>
-    <t>Ибо уста</t>
-  </si>
-  <si>
-    <t>רָשָׁע</t>
-  </si>
-  <si>
-    <t>нечестивые</t>
-  </si>
-  <si>
-    <t>וּפִי</t>
-  </si>
-  <si>
-    <t>и уста</t>
-  </si>
-  <si>
-    <t>מִרְמָה</t>
-  </si>
-  <si>
-    <t>лживые</t>
+    <t>פי</t>
+  </si>
+  <si>
+    <t>рот</t>
+  </si>
+  <si>
+    <t>רשע</t>
+  </si>
+  <si>
+    <t>злодея</t>
+  </si>
+  <si>
+    <t>ומפי</t>
+  </si>
+  <si>
+    <t>и от</t>
+  </si>
+  <si>
+    <t>מרמה</t>
+  </si>
+  <si>
+    <t>коварства</t>
+  </si>
+  <si>
+    <t>עלי</t>
+  </si>
+  <si>
+    <t>на меня</t>
+  </si>
+  <si>
+    <t>פתחו</t>
+  </si>
+  <si>
+    <t>открыли</t>
+  </si>
+  <si>
+    <t>דברו</t>
+  </si>
+  <si>
+    <t>разговаривали</t>
+  </si>
+  <si>
+    <t>לשון</t>
+  </si>
+  <si>
+    <t>на языке</t>
+  </si>
+  <si>
+    <t>שקר</t>
+  </si>
+  <si>
+    <t>лжи</t>
+  </si>
+  <si>
+    <t>ג</t>
+  </si>
+  <si>
+    <t>וְדִבְרֵי</t>
+  </si>
+  <si>
+    <t>И словами</t>
+  </si>
+  <si>
+    <t>שִׂנְאָה</t>
+  </si>
+  <si>
+    <t>ненависти</t>
+  </si>
+  <si>
+    <t>סְבָבוּנִי</t>
+  </si>
+  <si>
+    <t>окружили меня</t>
+  </si>
+  <si>
+    <t>וַיִּלָּחֲמוּ־נִי</t>
+  </si>
+  <si>
+    <t>и боролись со мной</t>
+  </si>
+  <si>
+    <t>חִנָּם</t>
+  </si>
+  <si>
+    <t>без причины</t>
+  </si>
+  <si>
+    <t>ד</t>
+  </si>
+  <si>
+    <t>תַּחַת־אַהֲבָתִי</t>
+  </si>
+  <si>
+    <t>Вместо любви моей</t>
+  </si>
+  <si>
+    <t>יִשְׂטְנוּנִי</t>
+  </si>
+  <si>
+    <t>враждовали со мной</t>
+  </si>
+  <si>
+    <t>וַאֲנִי</t>
+  </si>
+  <si>
+    <t>а я</t>
+  </si>
+  <si>
+    <t>תְפִלָּה</t>
+  </si>
+  <si>
+    <t>молюсь</t>
+  </si>
+  <si>
+    <t>ה</t>
+  </si>
+  <si>
+    <t>וַיָּשִׂימוּ</t>
+  </si>
+  <si>
+    <t>Воздают мне</t>
   </si>
   <si>
     <t>עָלַי</t>
   </si>
   <si>
-    <t>на меня</t>
-  </si>
-  <si>
-    <t>פָּתָחוּ</t>
-  </si>
-  <si>
-    <t>открыли</t>
-  </si>
-  <si>
-    <t>דִּבְּרוּ</t>
-  </si>
-  <si>
-    <t>говорили</t>
-  </si>
-  <si>
-    <t>אִתִּי</t>
-  </si>
-  <si>
-    <t>со мной</t>
-  </si>
-  <si>
-    <t>לְשׁוֹן</t>
-  </si>
-  <si>
-    <t>язык</t>
-  </si>
-  <si>
-    <t>שָׁקֶר</t>
-  </si>
-  <si>
-    <t>лжи</t>
-  </si>
-  <si>
-    <t>ג</t>
-  </si>
-  <si>
-    <t>וְדִבְרֵי</t>
-  </si>
-  <si>
-    <t>И словами</t>
-  </si>
-  <si>
-    <t>שִׂנְאָה</t>
-  </si>
-  <si>
-    <t>ненависти</t>
-  </si>
-  <si>
-    <t>סְבָבוּנִי</t>
-  </si>
-  <si>
-    <t>окружили меня</t>
-  </si>
-  <si>
-    <t>וַיִּלָּחֲמוּ־נִי</t>
-  </si>
-  <si>
-    <t>и боролись со мной</t>
-  </si>
-  <si>
-    <t>חִנָּם</t>
-  </si>
-  <si>
-    <t>без причины</t>
-  </si>
-  <si>
-    <t>ד</t>
-  </si>
-  <si>
-    <t>תַּחַת־אַהֲבָתִי</t>
-  </si>
-  <si>
-    <t>Вместо любви моей</t>
-  </si>
-  <si>
-    <t>יִשְׂטְנוּנִי</t>
-  </si>
-  <si>
-    <t>враждовали со мной</t>
-  </si>
-  <si>
-    <t>וַאֲנִי</t>
-  </si>
-  <si>
-    <t>а я</t>
-  </si>
-  <si>
-    <t>תְפִלָּה</t>
-  </si>
-  <si>
-    <t>молюсь</t>
-  </si>
-  <si>
-    <t>ה</t>
-  </si>
-  <si>
-    <t>וַיָּשִׂימוּ</t>
-  </si>
-  <si>
-    <t>Воздают мне</t>
-  </si>
-  <si>
     <t>за доброе</t>
   </si>
   <si>
@@ -229,21 +226,18 @@
     <t>ו</t>
   </si>
   <si>
-    <t>הַפְקֵד</t>
-  </si>
-  <si>
-    <t>Поставь</t>
-  </si>
-  <si>
-    <t>עָלָיו</t>
+    <t>פקד</t>
+  </si>
+  <si>
+    <t>назначь</t>
+  </si>
+  <si>
+    <t>עליו</t>
   </si>
   <si>
     <t>над ним</t>
   </si>
   <si>
-    <t>нечестивого</t>
-  </si>
-  <si>
     <t>וְשָׂטָן</t>
   </si>
   <si>
@@ -271,16 +265,16 @@
     <t>ז</t>
   </si>
   <si>
-    <t>בְּהִשָּׁפְטוֹ</t>
-  </si>
-  <si>
-    <t>Когда будет судиться</t>
-  </si>
-  <si>
-    <t>יֵצֵא</t>
-  </si>
-  <si>
-    <t>да выйдет</t>
+    <t>בהשפטו</t>
+  </si>
+  <si>
+    <t>в суде</t>
+  </si>
+  <si>
+    <t>יצא</t>
+  </si>
+  <si>
+    <t>выйдет</t>
   </si>
   <si>
     <t>виновным</t>
@@ -292,16 +286,16 @@
     <t>и молитва его</t>
   </si>
   <si>
-    <t>תְּהִי</t>
-  </si>
-  <si>
-    <t>да будет</t>
-  </si>
-  <si>
-    <t>לַחֲטָאָה</t>
-  </si>
-  <si>
-    <t>грехом</t>
+    <t>תהיה</t>
+  </si>
+  <si>
+    <t>будет</t>
+  </si>
+  <si>
+    <t>לחטאה</t>
+  </si>
+  <si>
+    <t>в грехе</t>
   </si>
   <si>
     <t>ח</t>
@@ -322,7 +316,7 @@
     <t>מְעַטִּים</t>
   </si>
   <si>
-    <t>немногие</t>
+    <t>немногочисленными</t>
   </si>
   <si>
     <t>פְּקֻדָּתוֹ</t>
@@ -349,10 +343,16 @@
     <t>יְהִיוּ־בָנָיו</t>
   </si>
   <si>
-    <t>Да будут сыновья его</t>
-  </si>
-  <si>
-    <t>יְתוֹמִים</t>
+    <t xml:space="preserve">Да будут </t>
+  </si>
+  <si>
+    <t>בניו</t>
+  </si>
+  <si>
+    <t>сыновья его</t>
+  </si>
+  <si>
+    <t>יתומים</t>
   </si>
   <si>
     <t>сиротами</t>
@@ -382,9 +382,6 @@
     <t>בָנָיו</t>
   </si>
   <si>
-    <t>сыновья его</t>
-  </si>
-  <si>
     <t>נָעוּ</t>
   </si>
   <si>
@@ -592,22 +589,22 @@
     <t>всегда</t>
   </si>
   <si>
-    <t>וְיַכְרֵת</t>
-  </si>
-  <si>
-    <t>и да истребит</t>
-  </si>
-  <si>
-    <t>מֵאֶרֶץ</t>
+    <t>יכרת</t>
+  </si>
+  <si>
+    <t>и будет истреблена</t>
+  </si>
+  <si>
+    <t>מארץ</t>
   </si>
   <si>
     <t>с земли</t>
   </si>
   <si>
-    <t>זִכְרָם</t>
-  </si>
-  <si>
-    <t>память их</t>
+    <t>זכרם</t>
+  </si>
+  <si>
+    <t>память о них</t>
   </si>
   <si>
     <t>טז</t>
@@ -619,22 +616,28 @@
     <t>За то, что он</t>
   </si>
   <si>
-    <t>כִּי־לֹא</t>
-  </si>
-  <si>
-    <t>не помнил</t>
-  </si>
-  <si>
-    <t>זָכַר</t>
-  </si>
-  <si>
-    <t>оказать</t>
-  </si>
-  <si>
-    <t>עֲשׂוֹת</t>
-  </si>
-  <si>
-    <t>милость</t>
+    <t>לא</t>
+  </si>
+  <si>
+    <t>не</t>
+  </si>
+  <si>
+    <t>יזכר</t>
+  </si>
+  <si>
+    <t>помнит</t>
+  </si>
+  <si>
+    <t>לעשות</t>
+  </si>
+  <si>
+    <t>чтобы делать</t>
+  </si>
+  <si>
+    <t>חסד</t>
+  </si>
+  <si>
+    <t>милосердие</t>
   </si>
   <si>
     <t>и преследовал</t>
@@ -1270,10 +1273,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color rgb="FF0D0D0D"/>
       <name val="Calibri"/>
     </font>
@@ -1298,7 +1303,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1317,6 +1322,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1616,101 +1627,101 @@
       <c r="C9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3.0</v>
       </c>
       <c r="C20" s="2"/>
     </row>
@@ -1751,20 +1762,20 @@
       <c r="C24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" s="6">
-        <v>4.0</v>
       </c>
       <c r="C26" s="2"/>
     </row>
@@ -1796,20 +1807,20 @@
       <c r="C29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B31" s="6">
-        <v>5.0</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -1824,43 +1835,43 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>67</v>
@@ -1869,19 +1880,19 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>70</v>
+      </c>
+      <c r="B39" s="6">
+        <v>6.0</v>
       </c>
       <c r="C39" s="2"/>
     </row>
@@ -1889,32 +1900,32 @@
       <c r="A40" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="6">
-        <v>6.0</v>
+      <c r="B40" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="6" t="s">
         <v>73</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>75</v>
+      <c r="A42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>76</v>
@@ -1949,44 +1960,44 @@
       <c r="C46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>84</v>
+      <c r="B47" s="6">
+        <v>7.0</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="6">
-        <v>7.0</v>
-      </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>90</v>
@@ -1994,38 +2005,38 @@
       <c r="C51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="B55" s="6">
-        <v>8.0</v>
       </c>
       <c r="C55" s="2"/>
     </row>
@@ -2075,37 +2086,37 @@
       <c r="C60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="6">
-        <v>9.0</v>
-      </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C64" s="2"/>
@@ -2151,49 +2162,49 @@
         <v>122</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B74" s="6">
         <v>11.0</v>
@@ -2202,70 +2213,70 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="C75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="C76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="C77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="C78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="C79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="C80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="C81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B82" s="6">
         <v>12.0</v>
@@ -2274,61 +2285,61 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="C83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="C84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="C86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="C87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="C88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B89" s="6">
         <v>13.0</v>
@@ -2337,61 +2348,61 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="C90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="C91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="C94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="C95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B96" s="6">
         <v>14.0</v>
@@ -2400,70 +2411,70 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="C97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="C98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="C99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="C100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="C101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="C103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B104" s="6">
         <v>15.0</v>
@@ -2472,70 +2483,70 @@
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="C106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="C107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C108" s="2"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="4" t="s">
+      <c r="B109" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="4" t="s">
+      <c r="B110" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C110" s="2"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="4" t="s">
+      <c r="B111" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="C111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B112" s="6">
         <v>16.0</v>
@@ -2544,205 +2555,205 @@
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="4" t="s">
+      <c r="B114" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C114" s="2"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="4" t="s">
+      <c r="B115" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C115" s="2"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="4" t="s">
+      <c r="B116" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C116" s="2"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="C118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="C119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="C120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="C121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="C122" s="2"/>
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C123" s="2"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="6" t="s">
+      <c r="B124" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B124" s="6">
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B125" s="6">
         <v>17.0</v>
-      </c>
-      <c r="C124" s="2"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="C125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="C126" s="2"/>
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="C127" s="2"/>
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="C128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="C129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="C130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="C131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C132" s="2"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="6" t="s">
+      <c r="B133" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B133" s="6">
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B134" s="6">
         <v>18.0</v>
-      </c>
-      <c r="C133" s="2"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="C134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>241</v>
@@ -2751,169 +2762,169 @@
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="C136" s="2"/>
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="C137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="C138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="C139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B140" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="C140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B141" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C141" s="2"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="6" t="s">
+      <c r="B142" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B142" s="6">
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B143" s="6">
         <v>19.0</v>
-      </c>
-      <c r="C142" s="2"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B144" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="C144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="C145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="C146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="C147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C148" s="2"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C148" s="2"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="6" t="s">
+      <c r="B149" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B149" s="6">
+      <c r="C149" s="2"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B150" s="6">
         <v>20.0</v>
-      </c>
-      <c r="C149" s="2"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="C150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B151" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="C151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="C152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B153" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="C153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" s="4" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>274</v>
@@ -2922,133 +2933,133 @@
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="C155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B156" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="C156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B157" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="C157" s="2"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C157" s="2"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="6" t="s">
+      <c r="B158" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B158" s="6">
+      <c r="C158" s="2"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B159" s="6">
         <v>21.0</v>
-      </c>
-      <c r="C158" s="2"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>283</v>
       </c>
       <c r="C159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="C160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B161" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="C161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B162" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="C162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="C163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B164" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="C164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B165" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="C165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B166" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="C166" s="2"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C166" s="2"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="6" t="s">
+      <c r="B167" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B167" s="6">
+      <c r="C167" s="2"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B168" s="6">
         <v>22.0</v>
-      </c>
-      <c r="C167" s="2"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="C168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" s="4" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>301</v>
@@ -3057,208 +3068,208 @@
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B170" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="C170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B171" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="C171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B172" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>307</v>
       </c>
       <c r="C172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B173" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="C173" s="2"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C173" s="2"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="6" t="s">
+      <c r="B174" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B174" s="6">
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B175" s="6">
         <v>23.0</v>
-      </c>
-      <c r="C174" s="2"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="C175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B176" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="C176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B177" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="C177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="C178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="C179" s="2"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C179" s="2"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="6" t="s">
+      <c r="B180" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B180" s="6">
+      <c r="C180" s="2"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B181" s="6">
         <v>24.0</v>
-      </c>
-      <c r="C180" s="2"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>323</v>
       </c>
       <c r="C181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B182" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="C182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>327</v>
       </c>
       <c r="C183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B184" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="C184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B185" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>331</v>
       </c>
       <c r="C185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B186" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="C186" s="2"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C186" s="2"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="6" t="s">
+      <c r="B187" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B187" s="6">
+      <c r="C187" s="2"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B188" s="6">
         <v>25.0</v>
-      </c>
-      <c r="C187" s="2"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>335</v>
       </c>
       <c r="C188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B189" s="5" t="s">
         <v>336</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>337</v>
       </c>
       <c r="C189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B190" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>339</v>
       </c>
       <c r="C190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B191" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="C191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B192" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C192" s="2"/>
     </row>
@@ -3267,103 +3278,103 @@
         <v>343</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>344</v>
+        <v>25</v>
       </c>
       <c r="C193" s="2"/>
     </row>
     <row r="194">
       <c r="A194" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B194" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="C194" s="2"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C194" s="2"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="6" t="s">
+      <c r="B195" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B195" s="6">
+      <c r="C195" s="2"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B196" s="6">
         <v>26.0</v>
-      </c>
-      <c r="C195" s="2"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>349</v>
       </c>
       <c r="C196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" s="4" t="s">
-        <v>189</v>
+        <v>349</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>285</v>
+        <v>350</v>
       </c>
       <c r="C197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" s="4" t="s">
-        <v>350</v>
+        <v>188</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>351</v>
+        <v>286</v>
       </c>
       <c r="C198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B199" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>353</v>
       </c>
       <c r="C199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B200" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="C200" s="2"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C200" s="2"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="6" t="s">
+      <c r="B201" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B201" s="6">
+      <c r="C201" s="2"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B202" s="6">
         <v>27.0</v>
-      </c>
-      <c r="C201" s="2"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="C202" s="2"/>
     </row>
     <row r="203">
       <c r="A203" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B203" s="5" t="s">
         <v>359</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>360</v>
       </c>
       <c r="C203" s="2"/>
     </row>
     <row r="204">
       <c r="A204" s="4" t="s">
-        <v>266</v>
+        <v>360</v>
       </c>
       <c r="B204" s="5" t="s">
         <v>361</v>
@@ -3372,52 +3383,52 @@
     </row>
     <row r="205">
       <c r="A205" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B205" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>363</v>
       </c>
       <c r="C205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" s="4" t="s">
-        <v>189</v>
+        <v>363</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>285</v>
+        <v>364</v>
       </c>
       <c r="C206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" s="4" t="s">
-        <v>364</v>
+        <v>188</v>
       </c>
       <c r="B207" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C207" s="2"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C207" s="2"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="6" t="s">
+      <c r="B208" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B208" s="6">
+      <c r="C208" s="2"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B209" s="6">
         <v>28.0</v>
-      </c>
-      <c r="C208" s="2"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>368</v>
       </c>
       <c r="C209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" s="4" t="s">
-        <v>282</v>
+        <v>368</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>369</v>
@@ -3426,70 +3437,70 @@
     </row>
     <row r="211">
       <c r="A211" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B211" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>371</v>
       </c>
       <c r="C211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B212" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>373</v>
       </c>
       <c r="C212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B213" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="C213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B214" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="C214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B215" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="C215" s="2"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C215" s="2"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="6" t="s">
+      <c r="B216" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B216" s="6">
+      <c r="C216" s="2"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B217" s="6">
         <v>29.0</v>
-      </c>
-      <c r="C216" s="2"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="C217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" s="4" t="s">
-        <v>270</v>
+        <v>382</v>
       </c>
       <c r="B218" s="5" t="s">
         <v>383</v>
@@ -3498,118 +3509,118 @@
     </row>
     <row r="219">
       <c r="A219" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B219" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="C219" s="2"/>
     </row>
     <row r="220">
       <c r="A220" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B220" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>387</v>
       </c>
       <c r="C220" s="2"/>
     </row>
     <row r="221">
       <c r="A221" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B221" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>389</v>
       </c>
       <c r="C221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B222" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="C222" s="2"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C222" s="2"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="6" t="s">
+      <c r="B223" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B223" s="6">
+      <c r="C223" s="2"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B224" s="6">
         <v>30.0</v>
-      </c>
-      <c r="C223" s="2"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="C224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B225" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>396</v>
       </c>
       <c r="C225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B226" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>398</v>
       </c>
       <c r="C226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B227" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>400</v>
       </c>
       <c r="C227" s="2"/>
     </row>
     <row r="228">
       <c r="A228" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B228" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="C228" s="2"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C228" s="2"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="6" t="s">
+      <c r="B229" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B229" s="6">
+      <c r="C229" s="2"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B230" s="6">
         <v>31.0</v>
-      </c>
-      <c r="C229" s="2"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>405</v>
       </c>
       <c r="C230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B231" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="C231" s="2"/>
     </row>
@@ -3618,36 +3629,45 @@
         <v>407</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="C232" s="2"/>
     </row>
     <row r="233">
       <c r="A233" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B233" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>410</v>
       </c>
       <c r="C233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B234" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>412</v>
       </c>
       <c r="C234" s="2"/>
     </row>
     <row r="235">
       <c r="A235" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B235" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="C235" s="2"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C235" s="2"/>
+      <c r="B236" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C236" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
